--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_60_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_60_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.480156442754219, 4.002444497945726]</t>
+          <t>[3.483339710432915, 3.99926123026703]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.09002283518824372, 0.21032288923822984]</t>
+          <t>[-0.08992382533771925, 0.21022387938770537]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.4240675776994662</v>
+        <v>0.4237641143197157</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4240675776994662</v>
+        <v>0.4237641143197157</v>
       </c>
       <c r="W2" t="n">
         <v>21.44624624624663</v>
